--- a/modules/beamdyn/src/OutListParameters.xlsx
+++ b/modules/beamdyn/src/OutListParameters.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjonkman\Documents\Data\Software\NREL\openfast\modules-local\beamdyn\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aplatt/software-development/GitHub/openfast/modules/beamdyn/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BE3BEF-EC59-0846-8A44-11358885051D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="300" windowWidth="15240" windowHeight="7845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="8" r:id="rId1"/>
     <sheet name="BeamDyn" sheetId="21" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="597">
   <si>
     <t>Category</t>
   </si>
@@ -1592,12 +1601,231 @@
   </si>
   <si>
     <t>N9RAZl</t>
+  </si>
+  <si>
+    <t>N1Fxr</t>
+  </si>
+  <si>
+    <t>N1Fyr</t>
+  </si>
+  <si>
+    <t>N1Fzr</t>
+  </si>
+  <si>
+    <t>N2Fxr</t>
+  </si>
+  <si>
+    <t>N2Fyr</t>
+  </si>
+  <si>
+    <t>N2Fzr</t>
+  </si>
+  <si>
+    <t>N3Fxr</t>
+  </si>
+  <si>
+    <t>N3Fyr</t>
+  </si>
+  <si>
+    <t>N3Fzr</t>
+  </si>
+  <si>
+    <t>N4Fxr</t>
+  </si>
+  <si>
+    <t>N4Fyr</t>
+  </si>
+  <si>
+    <t>N4Fzr</t>
+  </si>
+  <si>
+    <t>N5Fxr</t>
+  </si>
+  <si>
+    <t>N5Fyr</t>
+  </si>
+  <si>
+    <t>N5Fzr</t>
+  </si>
+  <si>
+    <t>N6Fxr</t>
+  </si>
+  <si>
+    <t>N6Fyr</t>
+  </si>
+  <si>
+    <t>N6Fzr</t>
+  </si>
+  <si>
+    <t>N7Fxr</t>
+  </si>
+  <si>
+    <t>N7Fyr</t>
+  </si>
+  <si>
+    <t>N7Fzr</t>
+  </si>
+  <si>
+    <t>N8Fxr</t>
+  </si>
+  <si>
+    <t>N8Fyr</t>
+  </si>
+  <si>
+    <t>N8Fzr</t>
+  </si>
+  <si>
+    <t>N9Fxr</t>
+  </si>
+  <si>
+    <t>N9Fyr</t>
+  </si>
+  <si>
+    <t>N9Fzr</t>
+  </si>
+  <si>
+    <t>N1Mxr</t>
+  </si>
+  <si>
+    <t>N1Myr</t>
+  </si>
+  <si>
+    <t>N1Mzr</t>
+  </si>
+  <si>
+    <t>N2Mxr</t>
+  </si>
+  <si>
+    <t>N2Myr</t>
+  </si>
+  <si>
+    <t>N2Mzr</t>
+  </si>
+  <si>
+    <t>N3Mxr</t>
+  </si>
+  <si>
+    <t>N3Myr</t>
+  </si>
+  <si>
+    <t>N3Mzr</t>
+  </si>
+  <si>
+    <t>N4Mxr</t>
+  </si>
+  <si>
+    <t>N4Myr</t>
+  </si>
+  <si>
+    <t>N4Mzr</t>
+  </si>
+  <si>
+    <t>N5Mxr</t>
+  </si>
+  <si>
+    <t>N5Myr</t>
+  </si>
+  <si>
+    <t>N5Mzr</t>
+  </si>
+  <si>
+    <t>N6Mxr</t>
+  </si>
+  <si>
+    <t>N6Myr</t>
+  </si>
+  <si>
+    <t>N6Mzr</t>
+  </si>
+  <si>
+    <t>N7Mxr</t>
+  </si>
+  <si>
+    <t>N7Myr</t>
+  </si>
+  <si>
+    <t>N7Mzr</t>
+  </si>
+  <si>
+    <t>N8Mxr</t>
+  </si>
+  <si>
+    <t>N8Myr</t>
+  </si>
+  <si>
+    <t>N8Mzr</t>
+  </si>
+  <si>
+    <t>N9Mxr</t>
+  </si>
+  <si>
+    <t>N9Myr</t>
+  </si>
+  <si>
+    <t>N9Mzr</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 1 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 2 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 3 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 4 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 5 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 6 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 7 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 8 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional force resultants at Node 9 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 1 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 2 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 3 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 4 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 5 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 6 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 7 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 8 expressed in r</t>
+  </si>
+  <si>
+    <t>Sectional moment resultants at Node 9 expressed in r</t>
+  </si>
+  <si>
+    <t>r: root coordinate system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1813,6 +2041,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1848,6 +2093,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2023,41 +2285,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="D8">
         <f>COUNTA(BeamDyn!B:B)-1</f>
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E8" t="s">
         <v>428</v>
@@ -2066,12 +2328,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2079,7 +2341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -2087,7 +2349,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2095,7 +2357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2103,7 +2365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2111,7 +2373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2119,7 +2381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2154,25 +2416,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G359"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="H193" sqref="H193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="63.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="63.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" customWidth="1"/>
-    <col min="5" max="5" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.1640625" customWidth="1"/>
+    <col min="5" max="5" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2457,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -2206,7 +2468,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>32</v>
@@ -2223,7 +2485,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>34</v>
@@ -2240,7 +2502,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>35</v>
@@ -2257,7 +2519,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>43</v>
@@ -2274,7 +2536,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>44</v>
@@ -2291,7 +2553,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>45</v>
@@ -2308,7 +2570,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2581,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
@@ -2333,7 +2595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
@@ -2347,7 +2609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>49</v>
       </c>
@@ -2361,7 +2623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
@@ -2375,7 +2637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
@@ -2389,7 +2651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
@@ -2403,7 +2665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
@@ -2417,7 +2679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
@@ -2431,7 +2693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
@@ -2445,7 +2707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>56</v>
       </c>
@@ -2459,7 +2721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
@@ -2473,7 +2735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>58</v>
       </c>
@@ -2487,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>464</v>
       </c>
@@ -2501,7 +2763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>465</v>
       </c>
@@ -2515,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>466</v>
       </c>
@@ -2529,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>467</v>
       </c>
@@ -2543,7 +2805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>468</v>
       </c>
@@ -2557,7 +2819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>469</v>
       </c>
@@ -2571,7 +2833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
@@ -2582,7 +2844,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="4" t="s">
         <v>65</v>
       </c>
@@ -2596,7 +2858,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>83</v>
       </c>
@@ -2610,7 +2872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>92</v>
       </c>
@@ -2624,7 +2886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>66</v>
       </c>
@@ -2638,7 +2900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>84</v>
       </c>
@@ -2652,7 +2914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>93</v>
       </c>
@@ -2666,7 +2928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>67</v>
       </c>
@@ -2680,7 +2942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>85</v>
       </c>
@@ -2694,7 +2956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>94</v>
       </c>
@@ -2708,7 +2970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>68</v>
       </c>
@@ -2722,7 +2984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>86</v>
       </c>
@@ -2736,7 +2998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>95</v>
       </c>
@@ -2750,7 +3012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>69</v>
       </c>
@@ -2764,7 +3026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>87</v>
       </c>
@@ -2778,7 +3040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>96</v>
       </c>
@@ -2792,7 +3054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>70</v>
       </c>
@@ -2806,7 +3068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>88</v>
       </c>
@@ -2820,7 +3082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>97</v>
       </c>
@@ -2834,7 +3096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>71</v>
       </c>
@@ -2848,7 +3110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>89</v>
       </c>
@@ -2862,7 +3124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>98</v>
       </c>
@@ -2876,7 +3138,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>72</v>
       </c>
@@ -2890,7 +3152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>90</v>
       </c>
@@ -2904,7 +3166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>99</v>
       </c>
@@ -2918,7 +3180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>73</v>
       </c>
@@ -2932,7 +3194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>91</v>
       </c>
@@ -2946,7 +3208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>100</v>
       </c>
@@ -2960,7 +3222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>102</v>
       </c>
@@ -2974,7 +3236,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>104</v>
       </c>
@@ -2988,7 +3250,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>105</v>
       </c>
@@ -3002,7 +3264,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>106</v>
       </c>
@@ -3016,7 +3278,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>108</v>
       </c>
@@ -3030,7 +3292,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>109</v>
       </c>
@@ -3044,7 +3306,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>110</v>
       </c>
@@ -3058,7 +3320,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>112</v>
       </c>
@@ -3072,7 +3334,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>113</v>
       </c>
@@ -3086,7 +3348,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>114</v>
       </c>
@@ -3100,7 +3362,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>116</v>
       </c>
@@ -3114,7 +3376,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>117</v>
       </c>
@@ -3128,7 +3390,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>118</v>
       </c>
@@ -3142,7 +3404,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>120</v>
       </c>
@@ -3156,7 +3418,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>121</v>
       </c>
@@ -3170,7 +3432,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>122</v>
       </c>
@@ -3184,7 +3446,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>124</v>
       </c>
@@ -3198,7 +3460,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>125</v>
       </c>
@@ -3212,7 +3474,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>126</v>
       </c>
@@ -3226,7 +3488,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>128</v>
       </c>
@@ -3240,7 +3502,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>129</v>
       </c>
@@ -3254,7 +3516,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>130</v>
       </c>
@@ -3268,7 +3530,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>132</v>
       </c>
@@ -3282,7 +3544,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>133</v>
       </c>
@@ -3296,7 +3558,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>134</v>
       </c>
@@ -3310,7 +3572,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>136</v>
       </c>
@@ -3324,7 +3586,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>137</v>
       </c>
@@ -3338,3974 +3600,4730 @@
         <v>432</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+    <row r="83" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>525</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>526</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>527</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>528</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>529</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>530</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>531</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>532</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>533</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>534</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>535</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>536</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>537</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>538</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>539</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>540</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>541</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>542</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>543</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>544</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>545</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>546</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>547</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>548</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>549</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>550</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>551</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F110" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>552</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F111" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>553</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F112" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>554</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F113" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>555</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F114" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>556</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F115" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>557</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F116" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>558</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F117" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>559</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F118" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>560</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F119" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>561</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F120" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>562</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F121" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>563</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F122" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>564</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F123" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>565</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F124" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>566</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F125" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>567</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F126" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>568</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F127" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>569</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F128" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>570</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F129" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>571</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F130" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>572</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F131" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>573</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F132" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>574</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F133" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>575</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F134" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>576</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F135" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>577</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F136" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="B137" s="3"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D138" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E138" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F138" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="139" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
         <v>141</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E139" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F139" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="140" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
         <v>142</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D140" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E140" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F140" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="141" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
         <v>143</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E141" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F141" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="142" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
         <v>145</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D142" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E142" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F142" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="143" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
         <v>146</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D143" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E143" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F143" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="144" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
         <v>147</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D144" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E144" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F144" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="145" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
         <v>149</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D145" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E145" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F145" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="146" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
         <v>150</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D146" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E146" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F146" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="147" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D147" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E147" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F147" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="148" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
         <v>153</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="D148" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E148" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F148" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="149" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
         <v>154</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D149" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E149" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F149" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="150" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
         <v>155</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D150" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E150" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F150" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="151" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
         <v>157</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D151" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E151" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F151" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="152" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
         <v>158</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D152" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E152" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F152" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="153" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
         <v>159</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D153" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E153" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F153" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="154" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
         <v>161</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D154" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E154" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F154" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="155" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
         <v>162</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D155" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F155" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="156" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
         <v>163</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D156" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E156" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F156" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="157" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
         <v>165</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D157" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E157" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F157" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="158" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
         <v>166</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D158" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E158" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F158" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="159" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
         <v>167</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D159" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E159" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F159" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="160" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
         <v>169</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D160" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E160" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F160" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="161" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
         <v>170</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D161" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E161" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F161" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="162" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
         <v>171</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D162" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E108" s="7" t="s">
+      <c r="E162" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F162" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="163" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
         <v>173</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D163" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E163" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F163" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="164" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
         <v>174</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D164" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E110" s="7" t="s">
+      <c r="E164" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F164" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
+    <row r="165" spans="2:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="B165" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B114" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B115" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B116" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B117" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B118" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B119" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B120" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B122" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B123" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B124" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B125" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B126" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B127" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B128" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B129" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B130" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B131" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B132" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B133" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B134" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B135" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B136" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F136" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>204</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>206</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F139" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>207</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F140" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>208</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F141" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>210</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F142" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>211</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F143" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>212</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F144" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>214</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>215</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F146" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>216</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F147" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>218</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F148" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>219</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>220</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>222</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F151" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>223</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F152" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>224</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>226</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F154" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>227</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F155" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>228</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F156" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>230</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F157" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>231</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F158" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>232</v>
-      </c>
-      <c r="D159" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F159" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>234</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F160" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>235</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F161" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>236</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F162" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>238</v>
-      </c>
-      <c r="D163" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F163" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>239</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F164" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B165" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="C165" s="8"/>
       <c r="D165" s="8" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B166" s="8" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="C166" s="8"/>
       <c r="D166" s="8" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B167" s="8" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="C167" s="8"/>
       <c r="D167" s="8" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="E167" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B168" s="8" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="C168" s="8"/>
       <c r="D168" s="8" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B169" s="8" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="8" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B170" s="8" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="C170" s="8"/>
       <c r="D170" s="8" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="E170" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B171" s="8" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="172" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B172" s="8" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="C172" s="8"/>
       <c r="D172" s="8" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E172" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B173" s="8" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="C173" s="8"/>
       <c r="D173" s="8" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B174" s="8" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="C174" s="8"/>
       <c r="D174" s="8" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B175" s="8" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="C175" s="8"/>
       <c r="D175" s="8" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B176" s="8" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="C176" s="8"/>
       <c r="D176" s="8" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B177" s="8" t="s">
-        <v>263</v>
+        <v>189</v>
       </c>
       <c r="C177" s="8"/>
       <c r="D177" s="8" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B178" s="8" t="s">
-        <v>265</v>
+        <v>190</v>
       </c>
       <c r="C178" s="8"/>
       <c r="D178" s="8" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B179" s="8" t="s">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="C179" s="8"/>
       <c r="D179" s="8" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B180" s="8" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="C180" s="8"/>
       <c r="D180" s="8" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B181" s="8" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="C181" s="8"/>
       <c r="D181" s="8" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E181" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B182" s="8" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="C182" s="8"/>
       <c r="D182" s="8" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B183" s="8" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="C183" s="8"/>
       <c r="D183" s="8" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B184" s="8" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="C184" s="8"/>
       <c r="D184" s="8" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B185" s="8" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="8" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B186" s="8" t="s">
-        <v>275</v>
+        <v>198</v>
       </c>
       <c r="C186" s="8"/>
       <c r="D186" s="8" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B187" s="8" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="C187" s="8"/>
       <c r="D187" s="8" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B188" s="8" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="C188" s="8"/>
       <c r="D188" s="8" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="E188" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B189" s="8" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="C189" s="8"/>
       <c r="D189" s="8" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B190" s="8" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="C190" s="8"/>
       <c r="D190" s="8" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="E190" s="8" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B191" s="8" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="C191" s="8"/>
       <c r="D191" s="8" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="E191" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>204</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E192" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F191" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B192" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E192" t="s">
-        <v>101</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B193" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="C193" s="8"/>
+      <c r="F192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>206</v>
+      </c>
       <c r="D193" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E193" t="s">
-        <v>101</v>
-      </c>
-      <c r="F193" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B194" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="C194" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F193" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>207</v>
+      </c>
       <c r="D194" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="E194" t="s">
-        <v>101</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B195" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C195" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F194" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>208</v>
+      </c>
       <c r="D195" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="E195" t="s">
-        <v>101</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B196" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="C196" s="8"/>
+        <v>209</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F195" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>210</v>
+      </c>
       <c r="D196" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="E196" t="s">
-        <v>101</v>
-      </c>
-      <c r="F196" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="C197" s="8"/>
+        <v>209</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>211</v>
+      </c>
       <c r="D197" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="E197" t="s">
-        <v>101</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B198" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="C198" s="8"/>
+        <v>209</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F197" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>212</v>
+      </c>
       <c r="D198" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E198" t="s">
-        <v>101</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B199" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="C199" s="8"/>
+        <v>213</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>214</v>
+      </c>
       <c r="D199" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B200" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C200" s="8"/>
+        <v>213</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F199" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>215</v>
+      </c>
       <c r="D200" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="E200" t="s">
-        <v>101</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B201" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="C201" s="8"/>
+        <v>213</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>216</v>
+      </c>
       <c r="D201" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E201" t="s">
-        <v>101</v>
-      </c>
-      <c r="F201" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B202" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="C202" s="8"/>
+        <v>217</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F201" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>218</v>
+      </c>
       <c r="D202" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E202" t="s">
-        <v>101</v>
-      </c>
-      <c r="F202" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B203" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C203" s="8"/>
+        <v>217</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F202" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>219</v>
+      </c>
       <c r="D203" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E203" t="s">
-        <v>101</v>
-      </c>
-      <c r="F203" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B204" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="C204" s="8"/>
+        <v>217</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>220</v>
+      </c>
       <c r="D204" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E204" t="s">
-        <v>101</v>
-      </c>
-      <c r="F204" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B205" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="C205" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>222</v>
+      </c>
       <c r="D205" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E205" t="s">
-        <v>101</v>
-      </c>
-      <c r="F205" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B206" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="C206" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>223</v>
+      </c>
       <c r="D206" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E206" t="s">
-        <v>101</v>
-      </c>
-      <c r="F206" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B207" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C207" s="8"/>
+        <v>221</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>224</v>
+      </c>
       <c r="D207" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="E207" t="s">
-        <v>101</v>
-      </c>
-      <c r="F207" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B208" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="C208" s="8"/>
+        <v>225</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F207" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>226</v>
+      </c>
       <c r="D208" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="E208" t="s">
-        <v>101</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B209" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C209" s="8"/>
+        <v>225</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F208" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>227</v>
+      </c>
       <c r="D209" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="E209" t="s">
-        <v>101</v>
-      </c>
-      <c r="F209" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B210" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="C210" s="8"/>
+        <v>225</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>228</v>
+      </c>
       <c r="D210" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="E210" t="s">
-        <v>101</v>
-      </c>
-      <c r="F210" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B211" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="C211" s="8"/>
+        <v>229</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F210" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>230</v>
+      </c>
       <c r="D211" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="E211" t="s">
-        <v>101</v>
-      </c>
-      <c r="F211" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B212" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="C212" s="8"/>
+        <v>229</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>231</v>
+      </c>
       <c r="D212" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="E212" t="s">
-        <v>101</v>
-      </c>
-      <c r="F212" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B213" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="C213" s="8"/>
+        <v>229</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>232</v>
+      </c>
       <c r="D213" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E213" t="s">
-        <v>101</v>
-      </c>
-      <c r="F213" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B214" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="C214" s="8"/>
+        <v>233</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>234</v>
+      </c>
       <c r="D214" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E214" t="s">
-        <v>101</v>
-      </c>
-      <c r="F214" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B215" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="C215" s="8"/>
+        <v>233</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F214" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>235</v>
+      </c>
       <c r="D215" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="E215" t="s">
-        <v>101</v>
-      </c>
-      <c r="F215" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B216" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="C216" s="8"/>
+        <v>233</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>236</v>
+      </c>
       <c r="D216" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E216" t="s">
-        <v>101</v>
-      </c>
-      <c r="F216" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B217" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="C217" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>238</v>
+      </c>
       <c r="D217" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E217" t="s">
-        <v>101</v>
-      </c>
-      <c r="F217" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B218" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C218" s="8"/>
+        <v>237</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F217" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>239</v>
+      </c>
       <c r="D218" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E218" t="s">
-        <v>101</v>
-      </c>
-      <c r="F218" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B219" s="8" t="s">
-        <v>497</v>
+        <v>247</v>
       </c>
       <c r="C219" s="8"/>
       <c r="D219" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E219" t="s">
-        <v>101</v>
+        <v>248</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B220" s="8" t="s">
-        <v>498</v>
+        <v>249</v>
       </c>
       <c r="C220" s="8"/>
       <c r="D220" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E220" t="s">
-        <v>101</v>
+        <v>248</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B221" s="8" t="s">
-        <v>499</v>
+        <v>250</v>
       </c>
       <c r="C221" s="8"/>
       <c r="D221" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="E221" t="s">
-        <v>101</v>
+        <v>248</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B222" s="8" t="s">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="C222" s="8"/>
       <c r="D222" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E222" t="s">
-        <v>101</v>
+        <v>252</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B223" s="8" t="s">
-        <v>501</v>
+        <v>253</v>
       </c>
       <c r="C223" s="8"/>
       <c r="D223" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E223" t="s">
-        <v>101</v>
+        <v>252</v>
+      </c>
+      <c r="E223" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B224" s="8" t="s">
-        <v>502</v>
+        <v>254</v>
       </c>
       <c r="C224" s="8"/>
       <c r="D224" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E224" t="s">
-        <v>101</v>
+        <v>252</v>
+      </c>
+      <c r="E224" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B225" s="8" t="s">
-        <v>503</v>
+        <v>255</v>
       </c>
       <c r="C225" s="8"/>
       <c r="D225" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E225" t="s">
-        <v>101</v>
+        <v>256</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B226" s="8" t="s">
-        <v>504</v>
+        <v>257</v>
       </c>
       <c r="C226" s="8"/>
       <c r="D226" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E226" t="s">
-        <v>101</v>
+        <v>256</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B227" s="8" t="s">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="C227" s="8"/>
       <c r="D227" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E227" t="s">
-        <v>101</v>
+        <v>256</v>
+      </c>
+      <c r="E227" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B228" s="8" t="s">
-        <v>506</v>
+        <v>259</v>
       </c>
       <c r="C228" s="8"/>
       <c r="D228" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E228" t="s">
-        <v>101</v>
+        <v>260</v>
+      </c>
+      <c r="E228" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B229" s="8" t="s">
-        <v>507</v>
+        <v>261</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E229" t="s">
-        <v>101</v>
+        <v>260</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B230" s="8" t="s">
-        <v>508</v>
+        <v>262</v>
       </c>
       <c r="C230" s="8"/>
       <c r="D230" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E230" t="s">
-        <v>101</v>
+        <v>260</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B231" s="8" t="s">
-        <v>509</v>
+        <v>263</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E231" t="s">
-        <v>101</v>
+        <v>264</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B232" s="8" t="s">
-        <v>510</v>
+        <v>265</v>
       </c>
       <c r="C232" s="8"/>
       <c r="D232" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E232" t="s">
-        <v>101</v>
+        <v>264</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B233" s="8" t="s">
-        <v>511</v>
+        <v>266</v>
       </c>
       <c r="C233" s="8"/>
       <c r="D233" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="E233" t="s">
-        <v>101</v>
+        <v>264</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B234" s="8" t="s">
-        <v>512</v>
+        <v>267</v>
       </c>
       <c r="C234" s="8"/>
       <c r="D234" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E234" t="s">
-        <v>101</v>
+        <v>268</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B235" s="8" t="s">
-        <v>513</v>
+        <v>269</v>
       </c>
       <c r="C235" s="8"/>
       <c r="D235" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E235" t="s">
-        <v>101</v>
+        <v>268</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B236" s="8" t="s">
-        <v>514</v>
+        <v>270</v>
       </c>
       <c r="C236" s="8"/>
       <c r="D236" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E236" t="s">
-        <v>101</v>
+        <v>268</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B237" s="8" t="s">
-        <v>515</v>
+        <v>271</v>
       </c>
       <c r="C237" s="8"/>
       <c r="D237" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E237" t="s">
-        <v>101</v>
+        <v>272</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B238" s="8" t="s">
-        <v>516</v>
+        <v>273</v>
       </c>
       <c r="C238" s="8"/>
       <c r="D238" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E238" t="s">
-        <v>101</v>
+        <v>272</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B239" s="8" t="s">
-        <v>517</v>
+        <v>274</v>
       </c>
       <c r="C239" s="8"/>
       <c r="D239" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="E239" t="s">
-        <v>101</v>
+        <v>272</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B240" s="8" t="s">
-        <v>518</v>
+        <v>275</v>
       </c>
       <c r="C240" s="8"/>
       <c r="D240" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E240" t="s">
-        <v>101</v>
+        <v>276</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B241" s="8" t="s">
-        <v>519</v>
+        <v>277</v>
       </c>
       <c r="C241" s="8"/>
       <c r="D241" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E241" t="s">
-        <v>101</v>
+        <v>276</v>
+      </c>
+      <c r="E241" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B242" s="8" t="s">
-        <v>520</v>
+        <v>278</v>
       </c>
       <c r="C242" s="8"/>
       <c r="D242" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="E242" t="s">
-        <v>101</v>
+        <v>276</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B243" s="8" t="s">
-        <v>521</v>
+        <v>279</v>
       </c>
       <c r="C243" s="8"/>
       <c r="D243" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E243" t="s">
-        <v>101</v>
+        <v>280</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B244" s="8" t="s">
-        <v>522</v>
+        <v>281</v>
       </c>
       <c r="C244" s="8"/>
       <c r="D244" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E244" t="s">
-        <v>101</v>
+        <v>280</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B245" s="8" t="s">
-        <v>523</v>
+        <v>282</v>
       </c>
       <c r="C245" s="8"/>
       <c r="D245" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F245" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B246" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C246" s="8"/>
+      <c r="D246" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E246" t="s">
+        <v>101</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B247" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E247" t="s">
+        <v>101</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B248" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C248" s="8"/>
+      <c r="D248" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E248" t="s">
+        <v>101</v>
+      </c>
+      <c r="F248" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B249" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C249" s="8"/>
+      <c r="D249" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E249" t="s">
+        <v>101</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B250" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C250" s="8"/>
+      <c r="D250" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E250" t="s">
+        <v>101</v>
+      </c>
+      <c r="F250" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B251" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E251" t="s">
+        <v>101</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B252" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E252" t="s">
+        <v>101</v>
+      </c>
+      <c r="F252" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B253" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="C253" s="8"/>
+      <c r="D253" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E253" t="s">
+        <v>101</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B254" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C254" s="8"/>
+      <c r="D254" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="E254" t="s">
+        <v>101</v>
+      </c>
+      <c r="F254" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B255" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E255" t="s">
+        <v>101</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B256" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C256" s="8"/>
+      <c r="D256" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E256" t="s">
+        <v>101</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B257" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C257" s="8"/>
+      <c r="D257" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E257" t="s">
+        <v>101</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B258" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C258" s="8"/>
+      <c r="D258" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E258" t="s">
+        <v>101</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B259" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E259" t="s">
+        <v>101</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B260" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E260" t="s">
+        <v>101</v>
+      </c>
+      <c r="F260" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B261" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E261" t="s">
+        <v>101</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B262" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E262" t="s">
+        <v>101</v>
+      </c>
+      <c r="F262" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B263" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E263" t="s">
+        <v>101</v>
+      </c>
+      <c r="F263" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B264" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C264" s="8"/>
+      <c r="D264" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E264" t="s">
+        <v>101</v>
+      </c>
+      <c r="F264" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B265" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E265" t="s">
+        <v>101</v>
+      </c>
+      <c r="F265" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B266" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="C266" s="8"/>
+      <c r="D266" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E266" t="s">
+        <v>101</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B267" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C267" s="8"/>
+      <c r="D267" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E267" t="s">
+        <v>101</v>
+      </c>
+      <c r="F267" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B268" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E268" t="s">
+        <v>101</v>
+      </c>
+      <c r="F268" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B269" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="E269" t="s">
+        <v>101</v>
+      </c>
+      <c r="F269" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B270" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E270" t="s">
+        <v>101</v>
+      </c>
+      <c r="F270" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B271" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E271" t="s">
+        <v>101</v>
+      </c>
+      <c r="F271" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B272" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C272" s="8"/>
+      <c r="D272" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E272" t="s">
+        <v>101</v>
+      </c>
+      <c r="F272" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B273" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E273" t="s">
+        <v>101</v>
+      </c>
+      <c r="F273" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B274" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C274" s="8"/>
+      <c r="D274" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E274" t="s">
+        <v>101</v>
+      </c>
+      <c r="F274" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B275" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C275" s="8"/>
+      <c r="D275" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E275" t="s">
+        <v>101</v>
+      </c>
+      <c r="F275" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B276" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E276" t="s">
+        <v>101</v>
+      </c>
+      <c r="F276" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B277" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="C277" s="8"/>
+      <c r="D277" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E277" t="s">
+        <v>101</v>
+      </c>
+      <c r="F277" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B278" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C278" s="8"/>
+      <c r="D278" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E278" t="s">
+        <v>101</v>
+      </c>
+      <c r="F278" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B279" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C279" s="8"/>
+      <c r="D279" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E279" t="s">
+        <v>101</v>
+      </c>
+      <c r="F279" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B280" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E280" t="s">
+        <v>101</v>
+      </c>
+      <c r="F280" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B281" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E281" t="s">
+        <v>101</v>
+      </c>
+      <c r="F281" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B282" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E282" t="s">
+        <v>101</v>
+      </c>
+      <c r="F282" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B283" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E283" t="s">
+        <v>101</v>
+      </c>
+      <c r="F283" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B284" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E284" t="s">
+        <v>101</v>
+      </c>
+      <c r="F284" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B285" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E285" t="s">
+        <v>101</v>
+      </c>
+      <c r="F285" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B286" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E286" t="s">
+        <v>101</v>
+      </c>
+      <c r="F286" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B287" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="C287" s="8"/>
+      <c r="D287" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E287" t="s">
+        <v>101</v>
+      </c>
+      <c r="F287" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B288" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C288" s="8"/>
+      <c r="D288" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E288" t="s">
+        <v>101</v>
+      </c>
+      <c r="F288" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B289" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C289" s="8"/>
+      <c r="D289" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E289" t="s">
+        <v>101</v>
+      </c>
+      <c r="F289" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B290" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E290" t="s">
+        <v>101</v>
+      </c>
+      <c r="F290" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B291" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C291" s="8"/>
+      <c r="D291" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E291" t="s">
+        <v>101</v>
+      </c>
+      <c r="F291" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B292" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E292" t="s">
+        <v>101</v>
+      </c>
+      <c r="F292" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B293" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C293" s="8"/>
+      <c r="D293" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E293" t="s">
+        <v>101</v>
+      </c>
+      <c r="F293" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B294" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C294" s="8"/>
+      <c r="D294" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E294" t="s">
+        <v>101</v>
+      </c>
+      <c r="F294" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B295" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C295" s="8"/>
+      <c r="D295" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E295" t="s">
+        <v>101</v>
+      </c>
+      <c r="F295" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B296" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C296" s="8"/>
+      <c r="D296" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E296" t="s">
+        <v>101</v>
+      </c>
+      <c r="F296" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B297" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C297" s="8"/>
+      <c r="D297" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="E245" t="s">
-        <v>101</v>
-      </c>
-      <c r="F245" s="8" t="s">
+      <c r="E297" t="s">
+        <v>101</v>
+      </c>
+      <c r="F297" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
+    <row r="298" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B298" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C298" s="8"/>
+      <c r="D298" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E298" t="s">
+        <v>101</v>
+      </c>
+      <c r="F298" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B299" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C299" s="8"/>
+      <c r="D299" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E299" t="s">
+        <v>101</v>
+      </c>
+      <c r="F299" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B246" s="3"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
+      <c r="B300" s="3"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="6"/>
+      <c r="E300" s="6"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="3"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
         <v>284</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D301" t="s">
         <v>285</v>
       </c>
-      <c r="E247" t="s">
-        <v>101</v>
-      </c>
-      <c r="F247" t="s">
+      <c r="E301" t="s">
+        <v>101</v>
+      </c>
+      <c r="F301" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B248" t="s">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
         <v>286</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D302" t="s">
         <v>285</v>
       </c>
-      <c r="E248" t="s">
-        <v>101</v>
-      </c>
-      <c r="F248" t="s">
+      <c r="E302" t="s">
+        <v>101</v>
+      </c>
+      <c r="F302" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B249" t="s">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
         <v>287</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D303" t="s">
         <v>285</v>
       </c>
-      <c r="E249" t="s">
-        <v>101</v>
-      </c>
-      <c r="F249" t="s">
+      <c r="E303" t="s">
+        <v>101</v>
+      </c>
+      <c r="F303" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
         <v>288</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D304" t="s">
         <v>289</v>
       </c>
-      <c r="E250" t="s">
-        <v>101</v>
-      </c>
-      <c r="F250" t="s">
+      <c r="E304" t="s">
+        <v>101</v>
+      </c>
+      <c r="F304" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
         <v>290</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D305" t="s">
         <v>289</v>
       </c>
-      <c r="E251" t="s">
-        <v>101</v>
-      </c>
-      <c r="F251" t="s">
+      <c r="E305" t="s">
+        <v>101</v>
+      </c>
+      <c r="F305" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B252" t="s">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
         <v>291</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D306" t="s">
         <v>289</v>
       </c>
-      <c r="E252" t="s">
-        <v>101</v>
-      </c>
-      <c r="F252" t="s">
+      <c r="E306" t="s">
+        <v>101</v>
+      </c>
+      <c r="F306" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
         <v>292</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D307" t="s">
         <v>293</v>
       </c>
-      <c r="E253" t="s">
-        <v>101</v>
-      </c>
-      <c r="F253" t="s">
+      <c r="E307" t="s">
+        <v>101</v>
+      </c>
+      <c r="F307" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
         <v>294</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D308" t="s">
         <v>293</v>
       </c>
-      <c r="E254" t="s">
-        <v>101</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="E308" t="s">
+        <v>101</v>
+      </c>
+      <c r="F308" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
         <v>295</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D309" t="s">
         <v>293</v>
       </c>
-      <c r="E255" t="s">
-        <v>101</v>
-      </c>
-      <c r="F255" t="s">
+      <c r="E309" t="s">
+        <v>101</v>
+      </c>
+      <c r="F309" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
         <v>296</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D310" t="s">
         <v>297</v>
       </c>
-      <c r="E256" t="s">
-        <v>101</v>
-      </c>
-      <c r="F256" t="s">
+      <c r="E310" t="s">
+        <v>101</v>
+      </c>
+      <c r="F310" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
         <v>298</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D311" t="s">
         <v>297</v>
       </c>
-      <c r="E257" t="s">
-        <v>101</v>
-      </c>
-      <c r="F257" t="s">
+      <c r="E311" t="s">
+        <v>101</v>
+      </c>
+      <c r="F311" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
         <v>299</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D312" t="s">
         <v>297</v>
       </c>
-      <c r="E258" t="s">
-        <v>101</v>
-      </c>
-      <c r="F258" t="s">
+      <c r="E312" t="s">
+        <v>101</v>
+      </c>
+      <c r="F312" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
         <v>300</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D313" t="s">
         <v>301</v>
       </c>
-      <c r="E259" t="s">
-        <v>101</v>
-      </c>
-      <c r="F259" t="s">
+      <c r="E313" t="s">
+        <v>101</v>
+      </c>
+      <c r="F313" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
         <v>302</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D314" t="s">
         <v>301</v>
       </c>
-      <c r="E260" t="s">
-        <v>101</v>
-      </c>
-      <c r="F260" t="s">
+      <c r="E314" t="s">
+        <v>101</v>
+      </c>
+      <c r="F314" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
         <v>303</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D315" t="s">
         <v>301</v>
       </c>
-      <c r="E261" t="s">
-        <v>101</v>
-      </c>
-      <c r="F261" t="s">
+      <c r="E315" t="s">
+        <v>101</v>
+      </c>
+      <c r="F315" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
         <v>304</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D316" t="s">
         <v>305</v>
       </c>
-      <c r="E262" t="s">
-        <v>101</v>
-      </c>
-      <c r="F262" t="s">
+      <c r="E316" t="s">
+        <v>101</v>
+      </c>
+      <c r="F316" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
         <v>306</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D317" t="s">
         <v>305</v>
       </c>
-      <c r="E263" t="s">
-        <v>101</v>
-      </c>
-      <c r="F263" t="s">
+      <c r="E317" t="s">
+        <v>101</v>
+      </c>
+      <c r="F317" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
         <v>307</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D318" t="s">
         <v>305</v>
       </c>
-      <c r="E264" t="s">
-        <v>101</v>
-      </c>
-      <c r="F264" t="s">
+      <c r="E318" t="s">
+        <v>101</v>
+      </c>
+      <c r="F318" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B265" t="s">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
         <v>308</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D319" t="s">
         <v>309</v>
       </c>
-      <c r="E265" t="s">
-        <v>101</v>
-      </c>
-      <c r="F265" t="s">
+      <c r="E319" t="s">
+        <v>101</v>
+      </c>
+      <c r="F319" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
         <v>310</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D320" t="s">
         <v>309</v>
       </c>
-      <c r="E266" t="s">
-        <v>101</v>
-      </c>
-      <c r="F266" t="s">
+      <c r="E320" t="s">
+        <v>101</v>
+      </c>
+      <c r="F320" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
         <v>311</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D321" t="s">
         <v>309</v>
       </c>
-      <c r="E267" t="s">
-        <v>101</v>
-      </c>
-      <c r="F267" t="s">
+      <c r="E321" t="s">
+        <v>101</v>
+      </c>
+      <c r="F321" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
         <v>312</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D322" t="s">
         <v>313</v>
       </c>
-      <c r="E268" t="s">
-        <v>101</v>
-      </c>
-      <c r="F268" t="s">
+      <c r="E322" t="s">
+        <v>101</v>
+      </c>
+      <c r="F322" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
         <v>314</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D323" t="s">
         <v>313</v>
       </c>
-      <c r="E269" t="s">
-        <v>101</v>
-      </c>
-      <c r="F269" t="s">
+      <c r="E323" t="s">
+        <v>101</v>
+      </c>
+      <c r="F323" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
         <v>315</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D324" t="s">
         <v>313</v>
       </c>
-      <c r="E270" t="s">
-        <v>101</v>
-      </c>
-      <c r="F270" t="s">
+      <c r="E324" t="s">
+        <v>101</v>
+      </c>
+      <c r="F324" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
         <v>316</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D325" t="s">
         <v>317</v>
       </c>
-      <c r="E271" t="s">
-        <v>101</v>
-      </c>
-      <c r="F271" t="s">
+      <c r="E325" t="s">
+        <v>101</v>
+      </c>
+      <c r="F325" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
         <v>318</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D326" t="s">
         <v>317</v>
       </c>
-      <c r="E272" t="s">
-        <v>101</v>
-      </c>
-      <c r="F272" t="s">
+      <c r="E326" t="s">
+        <v>101</v>
+      </c>
+      <c r="F326" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
         <v>319</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D327" t="s">
         <v>317</v>
       </c>
-      <c r="E273" t="s">
-        <v>101</v>
-      </c>
-      <c r="F273" t="s">
+      <c r="E327" t="s">
+        <v>101</v>
+      </c>
+      <c r="F327" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
         <v>320</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D328" t="s">
         <v>321</v>
       </c>
-      <c r="E274" t="s">
-        <v>101</v>
-      </c>
-      <c r="F274" t="s">
+      <c r="E328" t="s">
+        <v>101</v>
+      </c>
+      <c r="F328" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B275" t="s">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
         <v>322</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D329" t="s">
         <v>321</v>
       </c>
-      <c r="E275" t="s">
-        <v>101</v>
-      </c>
-      <c r="F275" t="s">
+      <c r="E329" t="s">
+        <v>101</v>
+      </c>
+      <c r="F329" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
         <v>323</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D330" t="s">
         <v>321</v>
       </c>
-      <c r="E276" t="s">
-        <v>101</v>
-      </c>
-      <c r="F276" t="s">
+      <c r="E330" t="s">
+        <v>101</v>
+      </c>
+      <c r="F330" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
         <v>324</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D331" t="s">
         <v>325</v>
       </c>
-      <c r="E277" t="s">
-        <v>101</v>
-      </c>
-      <c r="F277" t="s">
+      <c r="E331" t="s">
+        <v>101</v>
+      </c>
+      <c r="F331" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
         <v>326</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D332" t="s">
         <v>325</v>
       </c>
-      <c r="E278" t="s">
-        <v>101</v>
-      </c>
-      <c r="F278" t="s">
+      <c r="E332" t="s">
+        <v>101</v>
+      </c>
+      <c r="F332" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B279" t="s">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
         <v>327</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D333" t="s">
         <v>325</v>
       </c>
-      <c r="E279" t="s">
-        <v>101</v>
-      </c>
-      <c r="F279" t="s">
+      <c r="E333" t="s">
+        <v>101</v>
+      </c>
+      <c r="F333" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B280" t="s">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
         <v>328</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D334" t="s">
         <v>329</v>
       </c>
-      <c r="E280" t="s">
-        <v>101</v>
-      </c>
-      <c r="F280" t="s">
+      <c r="E334" t="s">
+        <v>101</v>
+      </c>
+      <c r="F334" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B335" t="s">
         <v>330</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D335" t="s">
         <v>329</v>
       </c>
-      <c r="E281" t="s">
-        <v>101</v>
-      </c>
-      <c r="F281" t="s">
+      <c r="E335" t="s">
+        <v>101</v>
+      </c>
+      <c r="F335" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B336" t="s">
         <v>331</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D336" t="s">
         <v>329</v>
       </c>
-      <c r="E282" t="s">
-        <v>101</v>
-      </c>
-      <c r="F282" t="s">
+      <c r="E336" t="s">
+        <v>101</v>
+      </c>
+      <c r="F336" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B283" t="s">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B337" t="s">
         <v>332</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D337" t="s">
         <v>333</v>
       </c>
-      <c r="E283" t="s">
-        <v>101</v>
-      </c>
-      <c r="F283" t="s">
+      <c r="E337" t="s">
+        <v>101</v>
+      </c>
+      <c r="F337" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B284" t="s">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B338" t="s">
         <v>334</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D338" t="s">
         <v>333</v>
       </c>
-      <c r="E284" t="s">
-        <v>101</v>
-      </c>
-      <c r="F284" t="s">
+      <c r="E338" t="s">
+        <v>101</v>
+      </c>
+      <c r="F338" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B285" t="s">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B339" t="s">
         <v>335</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D339" t="s">
         <v>333</v>
       </c>
-      <c r="E285" t="s">
-        <v>101</v>
-      </c>
-      <c r="F285" t="s">
+      <c r="E339" t="s">
+        <v>101</v>
+      </c>
+      <c r="F339" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B340" t="s">
         <v>336</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D340" t="s">
         <v>337</v>
       </c>
-      <c r="E286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F286" t="s">
+      <c r="E340" t="s">
+        <v>101</v>
+      </c>
+      <c r="F340" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B341" t="s">
         <v>338</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D341" t="s">
         <v>337</v>
       </c>
-      <c r="E287" t="s">
-        <v>101</v>
-      </c>
-      <c r="F287" t="s">
+      <c r="E341" t="s">
+        <v>101</v>
+      </c>
+      <c r="F341" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B342" t="s">
         <v>339</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D342" t="s">
         <v>337</v>
       </c>
-      <c r="E288" t="s">
-        <v>101</v>
-      </c>
-      <c r="F288" t="s">
+      <c r="E342" t="s">
+        <v>101</v>
+      </c>
+      <c r="F342" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B289" t="s">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B343" t="s">
         <v>340</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D343" t="s">
         <v>341</v>
       </c>
-      <c r="E289" t="s">
-        <v>101</v>
-      </c>
-      <c r="F289" t="s">
+      <c r="E343" t="s">
+        <v>101</v>
+      </c>
+      <c r="F343" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B344" t="s">
         <v>342</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D344" t="s">
         <v>341</v>
       </c>
-      <c r="E290" t="s">
-        <v>101</v>
-      </c>
-      <c r="F290" t="s">
+      <c r="E344" t="s">
+        <v>101</v>
+      </c>
+      <c r="F344" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B291" t="s">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B345" t="s">
         <v>343</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D345" t="s">
         <v>341</v>
       </c>
-      <c r="E291" t="s">
-        <v>101</v>
-      </c>
-      <c r="F291" t="s">
+      <c r="E345" t="s">
+        <v>101</v>
+      </c>
+      <c r="F345" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B292" t="s">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
         <v>344</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D346" t="s">
         <v>345</v>
       </c>
-      <c r="E292" t="s">
-        <v>101</v>
-      </c>
-      <c r="F292" t="s">
+      <c r="E346" t="s">
+        <v>101</v>
+      </c>
+      <c r="F346" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B293" t="s">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
         <v>346</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D347" t="s">
         <v>345</v>
       </c>
-      <c r="E293" t="s">
-        <v>101</v>
-      </c>
-      <c r="F293" t="s">
+      <c r="E347" t="s">
+        <v>101</v>
+      </c>
+      <c r="F347" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B294" t="s">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
         <v>347</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D348" t="s">
         <v>345</v>
       </c>
-      <c r="E294" t="s">
-        <v>101</v>
-      </c>
-      <c r="F294" t="s">
+      <c r="E348" t="s">
+        <v>101</v>
+      </c>
+      <c r="F348" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B295" t="s">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
         <v>348</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D349" t="s">
         <v>349</v>
       </c>
-      <c r="E295" t="s">
-        <v>101</v>
-      </c>
-      <c r="F295" t="s">
+      <c r="E349" t="s">
+        <v>101</v>
+      </c>
+      <c r="F349" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
         <v>350</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D350" t="s">
         <v>349</v>
       </c>
-      <c r="E296" t="s">
-        <v>101</v>
-      </c>
-      <c r="F296" t="s">
+      <c r="E350" t="s">
+        <v>101</v>
+      </c>
+      <c r="F350" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B297" t="s">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
         <v>351</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D351" t="s">
         <v>349</v>
       </c>
-      <c r="E297" t="s">
-        <v>101</v>
-      </c>
-      <c r="F297" t="s">
+      <c r="E351" t="s">
+        <v>101</v>
+      </c>
+      <c r="F351" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B298" t="s">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
         <v>352</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D352" t="s">
         <v>353</v>
       </c>
-      <c r="E298" t="s">
-        <v>101</v>
-      </c>
-      <c r="F298" t="s">
+      <c r="E352" t="s">
+        <v>101</v>
+      </c>
+      <c r="F352" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B353" t="s">
         <v>354</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D353" t="s">
         <v>353</v>
       </c>
-      <c r="E299" t="s">
-        <v>101</v>
-      </c>
-      <c r="F299" t="s">
+      <c r="E353" t="s">
+        <v>101</v>
+      </c>
+      <c r="F353" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B300" t="s">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B354" t="s">
         <v>355</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D354" t="s">
         <v>353</v>
       </c>
-      <c r="E300" t="s">
-        <v>101</v>
-      </c>
-      <c r="F300" t="s">
+      <c r="E354" t="s">
+        <v>101</v>
+      </c>
+      <c r="F354" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B355" t="s">
         <v>356</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D355" t="s">
         <v>357</v>
       </c>
-      <c r="E301" t="s">
-        <v>101</v>
-      </c>
-      <c r="F301" t="s">
+      <c r="E355" t="s">
+        <v>101</v>
+      </c>
+      <c r="F355" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B356" t="s">
         <v>358</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D356" t="s">
         <v>357</v>
       </c>
-      <c r="E302" t="s">
-        <v>101</v>
-      </c>
-      <c r="F302" t="s">
+      <c r="E356" t="s">
+        <v>101</v>
+      </c>
+      <c r="F356" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B357" t="s">
         <v>359</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D357" t="s">
         <v>357</v>
       </c>
-      <c r="E303" t="s">
-        <v>101</v>
-      </c>
-      <c r="F303" t="s">
+      <c r="E357" t="s">
+        <v>101</v>
+      </c>
+      <c r="F357" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B358" t="s">
         <v>360</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D358" t="s">
         <v>361</v>
       </c>
-      <c r="E304" t="s">
-        <v>101</v>
-      </c>
-      <c r="F304" t="s">
+      <c r="E358" t="s">
+        <v>101</v>
+      </c>
+      <c r="F358" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B359" t="s">
         <v>362</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D359" t="s">
         <v>361</v>
       </c>
-      <c r="E305" t="s">
-        <v>101</v>
-      </c>
-      <c r="F305" t="s">
+      <c r="E359" t="s">
+        <v>101</v>
+      </c>
+      <c r="F359" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B306" t="s">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B360" t="s">
         <v>363</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D360" t="s">
         <v>361</v>
       </c>
-      <c r="E306" t="s">
-        <v>101</v>
-      </c>
-      <c r="F306" t="s">
+      <c r="E360" t="s">
+        <v>101</v>
+      </c>
+      <c r="F360" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B307" t="s">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B361" t="s">
         <v>364</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D361" t="s">
         <v>365</v>
       </c>
-      <c r="E307" t="s">
-        <v>101</v>
-      </c>
-      <c r="F307" t="s">
+      <c r="E361" t="s">
+        <v>101</v>
+      </c>
+      <c r="F361" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B308" t="s">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B362" t="s">
         <v>366</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D362" t="s">
         <v>365</v>
       </c>
-      <c r="E308" t="s">
-        <v>101</v>
-      </c>
-      <c r="F308" t="s">
+      <c r="E362" t="s">
+        <v>101</v>
+      </c>
+      <c r="F362" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B309" t="s">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B363" t="s">
         <v>367</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D363" t="s">
         <v>365</v>
       </c>
-      <c r="E309" t="s">
-        <v>101</v>
-      </c>
-      <c r="F309" t="s">
+      <c r="E363" t="s">
+        <v>101</v>
+      </c>
+      <c r="F363" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B364" t="s">
         <v>368</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D364" t="s">
         <v>369</v>
       </c>
-      <c r="E310" t="s">
-        <v>101</v>
-      </c>
-      <c r="F310" t="s">
+      <c r="E364" t="s">
+        <v>101</v>
+      </c>
+      <c r="F364" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B311" t="s">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B365" t="s">
         <v>370</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D365" t="s">
         <v>369</v>
       </c>
-      <c r="E311" t="s">
-        <v>101</v>
-      </c>
-      <c r="F311" t="s">
+      <c r="E365" t="s">
+        <v>101</v>
+      </c>
+      <c r="F365" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B312" t="s">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B366" t="s">
         <v>371</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D366" t="s">
         <v>369</v>
       </c>
-      <c r="E312" t="s">
-        <v>101</v>
-      </c>
-      <c r="F312" t="s">
+      <c r="E366" t="s">
+        <v>101</v>
+      </c>
+      <c r="F366" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B313" t="s">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B367" t="s">
         <v>372</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D367" t="s">
         <v>373</v>
       </c>
-      <c r="E313" t="s">
-        <v>101</v>
-      </c>
-      <c r="F313" t="s">
+      <c r="E367" t="s">
+        <v>101</v>
+      </c>
+      <c r="F367" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B314" t="s">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B368" t="s">
         <v>374</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D368" t="s">
         <v>373</v>
       </c>
-      <c r="E314" t="s">
-        <v>101</v>
-      </c>
-      <c r="F314" t="s">
+      <c r="E368" t="s">
+        <v>101</v>
+      </c>
+      <c r="F368" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B315" t="s">
+    <row r="369" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B369" t="s">
         <v>375</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D369" t="s">
         <v>373</v>
       </c>
-      <c r="E315" t="s">
-        <v>101</v>
-      </c>
-      <c r="F315" t="s">
+      <c r="E369" t="s">
+        <v>101</v>
+      </c>
+      <c r="F369" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B316" t="s">
+    <row r="370" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
         <v>376</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D370" t="s">
         <v>377</v>
       </c>
-      <c r="E316" t="s">
-        <v>101</v>
-      </c>
-      <c r="F316" t="s">
+      <c r="E370" t="s">
+        <v>101</v>
+      </c>
+      <c r="F370" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B317" t="s">
+    <row r="371" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
         <v>378</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D371" t="s">
         <v>377</v>
       </c>
-      <c r="E317" t="s">
-        <v>101</v>
-      </c>
-      <c r="F317" t="s">
+      <c r="E371" t="s">
+        <v>101</v>
+      </c>
+      <c r="F371" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B318" t="s">
+    <row r="372" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
         <v>379</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D372" t="s">
         <v>377</v>
       </c>
-      <c r="E318" t="s">
-        <v>101</v>
-      </c>
-      <c r="F318" t="s">
+      <c r="E372" t="s">
+        <v>101</v>
+      </c>
+      <c r="F372" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B319" t="s">
+    <row r="373" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
         <v>380</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D373" t="s">
         <v>381</v>
       </c>
-      <c r="E319" t="s">
-        <v>101</v>
-      </c>
-      <c r="F319" t="s">
+      <c r="E373" t="s">
+        <v>101</v>
+      </c>
+      <c r="F373" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B320" t="s">
+    <row r="374" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B374" t="s">
         <v>382</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D374" t="s">
         <v>381</v>
       </c>
-      <c r="E320" t="s">
-        <v>101</v>
-      </c>
-      <c r="F320" t="s">
+      <c r="E374" t="s">
+        <v>101</v>
+      </c>
+      <c r="F374" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B321" t="s">
+    <row r="375" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B375" t="s">
         <v>383</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D375" t="s">
         <v>381</v>
       </c>
-      <c r="E321" t="s">
-        <v>101</v>
-      </c>
-      <c r="F321" t="s">
+      <c r="E375" t="s">
+        <v>101</v>
+      </c>
+      <c r="F375" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B322" t="s">
+    <row r="376" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B376" t="s">
         <v>384</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D376" t="s">
         <v>385</v>
       </c>
-      <c r="E322" t="s">
-        <v>101</v>
-      </c>
-      <c r="F322" t="s">
+      <c r="E376" t="s">
+        <v>101</v>
+      </c>
+      <c r="F376" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B323" t="s">
+    <row r="377" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B377" t="s">
         <v>386</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D377" t="s">
         <v>385</v>
       </c>
-      <c r="E323" t="s">
-        <v>101</v>
-      </c>
-      <c r="F323" t="s">
+      <c r="E377" t="s">
+        <v>101</v>
+      </c>
+      <c r="F377" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B324" t="s">
+    <row r="378" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
         <v>387</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D378" t="s">
         <v>385</v>
       </c>
-      <c r="E324" t="s">
-        <v>101</v>
-      </c>
-      <c r="F324" t="s">
+      <c r="E378" t="s">
+        <v>101</v>
+      </c>
+      <c r="F378" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B325" t="s">
+    <row r="379" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
         <v>388</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D379" t="s">
         <v>389</v>
       </c>
-      <c r="E325" t="s">
-        <v>101</v>
-      </c>
-      <c r="F325" t="s">
+      <c r="E379" t="s">
+        <v>101</v>
+      </c>
+      <c r="F379" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B326" t="s">
+    <row r="380" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
         <v>390</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D380" t="s">
         <v>389</v>
       </c>
-      <c r="E326" t="s">
-        <v>101</v>
-      </c>
-      <c r="F326" t="s">
+      <c r="E380" t="s">
+        <v>101</v>
+      </c>
+      <c r="F380" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B327" t="s">
+    <row r="381" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
         <v>391</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D381" t="s">
         <v>389</v>
       </c>
-      <c r="E327" t="s">
-        <v>101</v>
-      </c>
-      <c r="F327" t="s">
+      <c r="E381" t="s">
+        <v>101</v>
+      </c>
+      <c r="F381" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B328" t="s">
+    <row r="382" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B382" t="s">
         <v>392</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D382" t="s">
         <v>393</v>
       </c>
-      <c r="E328" t="s">
-        <v>101</v>
-      </c>
-      <c r="F328" t="s">
+      <c r="E382" t="s">
+        <v>101</v>
+      </c>
+      <c r="F382" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B329" t="s">
+    <row r="383" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B383" t="s">
         <v>394</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D383" t="s">
         <v>393</v>
       </c>
-      <c r="E329" t="s">
-        <v>101</v>
-      </c>
-      <c r="F329" t="s">
+      <c r="E383" t="s">
+        <v>101</v>
+      </c>
+      <c r="F383" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B330" t="s">
+    <row r="384" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B384" t="s">
         <v>395</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D384" t="s">
         <v>393</v>
       </c>
-      <c r="E330" t="s">
-        <v>101</v>
-      </c>
-      <c r="F330" t="s">
+      <c r="E384" t="s">
+        <v>101</v>
+      </c>
+      <c r="F384" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B331" t="s">
+    <row r="385" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B385" t="s">
         <v>396</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D385" t="s">
         <v>397</v>
       </c>
-      <c r="E331" t="s">
-        <v>101</v>
-      </c>
-      <c r="F331" t="s">
+      <c r="E385" t="s">
+        <v>101</v>
+      </c>
+      <c r="F385" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B332" t="s">
+    <row r="386" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B386" t="s">
         <v>398</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D386" t="s">
         <v>397</v>
       </c>
-      <c r="E332" t="s">
-        <v>101</v>
-      </c>
-      <c r="F332" t="s">
+      <c r="E386" t="s">
+        <v>101</v>
+      </c>
+      <c r="F386" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B333" t="s">
+    <row r="387" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B387" t="s">
         <v>399</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D387" t="s">
         <v>397</v>
       </c>
-      <c r="E333" t="s">
-        <v>101</v>
-      </c>
-      <c r="F333" t="s">
+      <c r="E387" t="s">
+        <v>101</v>
+      </c>
+      <c r="F387" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B334" t="s">
+    <row r="388" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B388" t="s">
         <v>400</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D388" t="s">
         <v>401</v>
       </c>
-      <c r="E334" t="s">
-        <v>101</v>
-      </c>
-      <c r="F334" t="s">
+      <c r="E388" t="s">
+        <v>101</v>
+      </c>
+      <c r="F388" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B335" t="s">
+    <row r="389" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B389" t="s">
         <v>402</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D389" t="s">
         <v>401</v>
       </c>
-      <c r="E335" t="s">
-        <v>101</v>
-      </c>
-      <c r="F335" t="s">
+      <c r="E389" t="s">
+        <v>101</v>
+      </c>
+      <c r="F389" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B336" t="s">
+    <row r="390" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B390" t="s">
         <v>403</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D390" t="s">
         <v>401</v>
       </c>
-      <c r="E336" t="s">
-        <v>101</v>
-      </c>
-      <c r="F336" t="s">
+      <c r="E390" t="s">
+        <v>101</v>
+      </c>
+      <c r="F390" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B337" t="s">
+    <row r="391" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B391" t="s">
         <v>404</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D391" t="s">
         <v>405</v>
       </c>
-      <c r="E337" t="s">
-        <v>101</v>
-      </c>
-      <c r="F337" t="s">
+      <c r="E391" t="s">
+        <v>101</v>
+      </c>
+      <c r="F391" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B338" t="s">
+    <row r="392" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
         <v>406</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D392" t="s">
         <v>405</v>
       </c>
-      <c r="E338" t="s">
-        <v>101</v>
-      </c>
-      <c r="F338" t="s">
+      <c r="E392" t="s">
+        <v>101</v>
+      </c>
+      <c r="F392" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B339" t="s">
+    <row r="393" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B393" t="s">
         <v>407</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D393" t="s">
         <v>405</v>
       </c>
-      <c r="E339" t="s">
-        <v>101</v>
-      </c>
-      <c r="F339" t="s">
+      <c r="E393" t="s">
+        <v>101</v>
+      </c>
+      <c r="F393" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B340" t="s">
+    <row r="394" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B394" t="s">
         <v>408</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D394" t="s">
         <v>409</v>
       </c>
-      <c r="E340" t="s">
-        <v>101</v>
-      </c>
-      <c r="F340" t="s">
+      <c r="E394" t="s">
+        <v>101</v>
+      </c>
+      <c r="F394" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B341" t="s">
+    <row r="395" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B395" t="s">
         <v>410</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D395" t="s">
         <v>409</v>
       </c>
-      <c r="E341" t="s">
-        <v>101</v>
-      </c>
-      <c r="F341" t="s">
+      <c r="E395" t="s">
+        <v>101</v>
+      </c>
+      <c r="F395" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B342" t="s">
+    <row r="396" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B396" t="s">
         <v>411</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D396" t="s">
         <v>409</v>
       </c>
-      <c r="E342" t="s">
-        <v>101</v>
-      </c>
-      <c r="F342" t="s">
+      <c r="E396" t="s">
+        <v>101</v>
+      </c>
+      <c r="F396" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B343" t="s">
+    <row r="397" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B397" t="s">
         <v>412</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D397" t="s">
         <v>413</v>
       </c>
-      <c r="E343" t="s">
-        <v>101</v>
-      </c>
-      <c r="F343" t="s">
+      <c r="E397" t="s">
+        <v>101</v>
+      </c>
+      <c r="F397" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B344" t="s">
+    <row r="398" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B398" t="s">
         <v>414</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D398" t="s">
         <v>413</v>
       </c>
-      <c r="E344" t="s">
-        <v>101</v>
-      </c>
-      <c r="F344" t="s">
+      <c r="E398" t="s">
+        <v>101</v>
+      </c>
+      <c r="F398" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B345" t="s">
+    <row r="399" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B399" t="s">
         <v>415</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D399" t="s">
         <v>413</v>
       </c>
-      <c r="E345" t="s">
-        <v>101</v>
-      </c>
-      <c r="F345" t="s">
+      <c r="E399" t="s">
+        <v>101</v>
+      </c>
+      <c r="F399" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B346" t="s">
+    <row r="400" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B400" t="s">
         <v>416</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D400" t="s">
         <v>417</v>
       </c>
-      <c r="E346" t="s">
-        <v>101</v>
-      </c>
-      <c r="F346" t="s">
+      <c r="E400" t="s">
+        <v>101</v>
+      </c>
+      <c r="F400" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B401" t="s">
         <v>418</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D401" t="s">
         <v>417</v>
       </c>
-      <c r="E347" t="s">
-        <v>101</v>
-      </c>
-      <c r="F347" t="s">
+      <c r="E401" t="s">
+        <v>101</v>
+      </c>
+      <c r="F401" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B348" t="s">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B402" t="s">
         <v>419</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D402" t="s">
         <v>417</v>
       </c>
-      <c r="E348" t="s">
-        <v>101</v>
-      </c>
-      <c r="F348" t="s">
+      <c r="E402" t="s">
+        <v>101</v>
+      </c>
+      <c r="F402" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B349" t="s">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B403" t="s">
         <v>420</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D403" t="s">
         <v>421</v>
       </c>
-      <c r="E349" t="s">
-        <v>101</v>
-      </c>
-      <c r="F349" t="s">
+      <c r="E403" t="s">
+        <v>101</v>
+      </c>
+      <c r="F403" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B350" t="s">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B404" t="s">
         <v>422</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D404" t="s">
         <v>421</v>
       </c>
-      <c r="E350" t="s">
-        <v>101</v>
-      </c>
-      <c r="F350" t="s">
+      <c r="E404" t="s">
+        <v>101</v>
+      </c>
+      <c r="F404" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B351" t="s">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B405" t="s">
         <v>423</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D405" t="s">
         <v>421</v>
       </c>
-      <c r="E351" t="s">
-        <v>101</v>
-      </c>
-      <c r="F351" t="s">
+      <c r="E405" t="s">
+        <v>101</v>
+      </c>
+      <c r="F405" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B352" t="s">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B406" t="s">
         <v>424</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D406" t="s">
         <v>425</v>
       </c>
-      <c r="E352" t="s">
-        <v>101</v>
-      </c>
-      <c r="F352" t="s">
+      <c r="E406" t="s">
+        <v>101</v>
+      </c>
+      <c r="F406" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B353" t="s">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B407" t="s">
         <v>426</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D407" t="s">
         <v>425</v>
       </c>
-      <c r="E353" t="s">
-        <v>101</v>
-      </c>
-      <c r="F353" t="s">
+      <c r="E407" t="s">
+        <v>101</v>
+      </c>
+      <c r="F407" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B354" t="s">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B408" t="s">
         <v>427</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D408" t="s">
         <v>425</v>
       </c>
-      <c r="E354" t="s">
-        <v>101</v>
-      </c>
-      <c r="F354" t="s">
+      <c r="E408" t="s">
+        <v>101</v>
+      </c>
+      <c r="F408" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="3" t="s">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A409" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B355" s="3"/>
-      <c r="C355" s="6"/>
-      <c r="D355" s="6"/>
-      <c r="E355" s="6"/>
-      <c r="F355" s="3"/>
-      <c r="G355" s="3"/>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B356" t="s">
+      <c r="B409" s="3"/>
+      <c r="C409" s="6"/>
+      <c r="D409" s="6"/>
+      <c r="E409" s="6"/>
+      <c r="F409" s="3"/>
+      <c r="G409" s="3"/>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B410" t="s">
         <v>435</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D410" t="s">
         <v>436</v>
       </c>
-      <c r="F356" t="s">
+      <c r="F410" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B357" t="s">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B411" t="s">
         <v>438</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D411" t="s">
         <v>439</v>
       </c>
-      <c r="F357" t="s">
+      <c r="F411" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B358" t="s">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B412" t="s">
         <v>440</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D412" t="s">
         <v>441</v>
       </c>
-      <c r="F358" t="s">
+      <c r="F412" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B359" t="s">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B413" t="s">
         <v>442</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D413" t="s">
         <v>443</v>
       </c>
-      <c r="F359" t="s">
+      <c r="F413" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B29:F55">
-    <sortCondition ref="B29:B55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B83:F109">
+    <sortCondition ref="B83:B109"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
